--- a/xlsx/中央银行_intext.xlsx
+++ b/xlsx/中央银行_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="980">
   <si>
     <t>中央银行</t>
   </si>
@@ -29,7 +29,7 @@
     <t>公共财政</t>
   </si>
   <si>
-    <t>政策_政策_美國_中央银行</t>
+    <t>政策_政策_美国_中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%9F%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>貨幣基數</t>
+    <t>货币基数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91%E6%AF%94%E7%8E%87</t>
   </si>
   <si>
-    <t>存款準備金比率</t>
+    <t>存款准备金比率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91</t>
   </si>
   <si>
-    <t>存款準備金</t>
+    <t>存款准备金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E5%82%A8%E5%A4%87</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%88%A9%E5%BE%97</t>
   </si>
   <si>
-    <t>貿易利得</t>
+    <t>贸易利得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>商務部</t>
+    <t>商务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E5%A3%81%E5%9E%92</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>金融服務</t>
+    <t>金融服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E8%A1%8C</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E4%BA%BA%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>私人銀行</t>
+    <t>私人银行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Public_bank</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C%E5%B8%B3%E6%88%B6</t>
   </si>
   <si>
-    <t>銀行帳戶</t>
+    <t>银行帐户</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E8%A1%8C%E5%8D%A1</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%80%E4%BE%86%E6%88%B6%E5%8F%A3</t>
   </si>
   <si>
-    <t>往來戶口</t>
+    <t>往来户口</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Money_market_account</t>
@@ -545,15 +545,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>貨幣政策</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81</t>
   </si>
   <si>
@@ -575,31 +572,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8C%AF%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>外匯市場</t>
+    <t>外汇市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>總裁</t>
+    <t>总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中華民國中央銀行</t>
+    <t>中华民国中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA%E6%B0%91%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中國人民銀行</t>
+    <t>中国人民银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F%E5%A4%AE%E8%A1%8C</t>
   </si>
   <si>
-    <t>歐盟央行</t>
+    <t>欧盟央行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%B8%AD</t>
@@ -629,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國聯邦儲備系統</t>
+    <t>美国联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>英格蘭銀行</t>
+    <t>英格兰银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%82%A8%E5%A4%87%E9%93%B6%E8%A1%8C</t>
@@ -653,33 +650,30 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>日本銀行</t>
+    <t>日本银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>加拿大中央銀行</t>
+    <t>加拿大中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%84%B2%E5%82%99%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>澳洲儲備銀行</t>
+    <t>澳洲储备银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%AE%E8%A1%8C</t>
   </si>
   <si>
-    <t>歐洲央行</t>
+    <t>欧洲央行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99</t>
   </si>
   <si>
@@ -689,13 +683,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BC%E7%8F%BE%E7%8E%87</t>
   </si>
   <si>
-    <t>貼現率</t>
+    <t>贴现率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>危機</t>
+    <t>危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%90%8E%E8%B4%B7%E6%AC%BE%E4%BA%BA</t>
@@ -725,15 +719,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>通貨膨脹</t>
+    <t>通货膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>日本银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
@@ -743,13 +734,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97</t>
@@ -767,13 +758,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國中央銀行</t>
+    <t>朝鲜民主主义人民共和国中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -785,9 +776,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>中国人民银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -815,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>首爾</t>
+    <t>首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>馬來西亞國家銀行</t>
+    <t>马来西亚国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -845,55 +833,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%8D%81%E5%85%83%E7%B4%99%E5%B9%A3</t>
   </si>
   <si>
-    <t>香港十元紙幣</t>
+    <t>香港十元纸币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E8%B1%90%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>匯豐銀行</t>
+    <t>汇丰银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A3%E6%89%93%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>渣打銀行</t>
+    <t>渣打银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%8A%80%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
-    <t>中銀香港</t>
+    <t>中银香港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E9%87%91%E8%9E%8D%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>澳門金融管理局</t>
+    <t>澳门金融管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>大西洋銀行</t>
+    <t>大西洋银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%8A%80%E8%A1%8C%E6%BE%B3%E9%96%80%E5%88%86%E8%A1%8C</t>
   </si>
   <si>
-    <t>中國銀行澳門分行</t>
+    <t>中国银行澳门分行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>蒙古銀行</t>
+    <t>蒙古银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
@@ -923,9 +911,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>英格兰银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
@@ -947,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E8%81%94%E9%82%A6%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
@@ -959,13 +944,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>歐洲中央銀行</t>
+    <t>欧洲中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%85%83%E5%8C%BA</t>
@@ -977,13 +962,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F</t>
   </si>
   <si>
-    <t>法蘭克福</t>
+    <t>法兰克福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -1013,15 +998,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>欧洲中央银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91</t>
   </si>
   <si>
@@ -1037,25 +1019,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%94%E7%A5%A8</t>
   </si>
   <si>
-    <t>鈔票</t>
+    <t>钞票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>匯率</t>
+    <t>汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%8B%A2%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>強勢貨幣</t>
+    <t>强势货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%B9%AB%E5%8C%AF%E7%8E%87%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>聯繫匯率制度</t>
+    <t>联系汇率制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A5%A8</t>
@@ -1067,25 +1049,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
+    <t>爱沙尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>加拿大銀行</t>
+    <t>加拿大银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>俄羅斯銀行</t>
+    <t>俄罗斯银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>烏克蘭國家銀行</t>
+    <t>乌克兰国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E5%B8%82</t>
@@ -1097,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E5%9C%B0%E7%94%A2</t>
   </si>
   <si>
-    <t>房地產</t>
+    <t>房地产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%87%86%E4%BC%9A</t>
@@ -1115,19 +1097,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E8%83%BD%E7%9A%84%E4%B8%89%E4%BD%8D%E4%B8%80%E9%AB%94</t>
   </si>
   <si>
-    <t>不可能的三位一體</t>
+    <t>不可能的三位一体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>索羅斯</t>
+    <t>索罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
   </si>
   <si>
-    <t>英鎊</t>
+    <t>英镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%97%E5%88%A9</t>
@@ -1139,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%84%E7%BB%87</t>
@@ -1151,13 +1133,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B8%85%E7%AE%97%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>國際清算銀行</t>
+    <t>国际清算银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%E9%8A%80%E8%A1%8C%E7%9B%A3%E7%90%86%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>巴塞爾銀行監理委員會</t>
+    <t>巴塞尔银行监理委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%A8%B3%E5%AE%9A%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1175,9 +1157,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E5%A4%AE%E8%A1%8C</t>
   </si>
   <si>
-    <t>欧洲央行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
   </si>
   <si>
@@ -1289,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81%E5%84%B2%E5%82%99%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>辛巴威儲備銀行</t>
+    <t>辛巴威储备银行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bank_of_Mauritius</t>
@@ -1445,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>埃及中央銀行</t>
+    <t>埃及中央银行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Central_Bank_of_Sudan</t>
@@ -1673,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>巴西中央銀行</t>
+    <t>巴西中央银行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Central_Reserve_Bank_of_Peru</t>
@@ -1769,9 +1748,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
   </si>
   <si>
@@ -1961,13 +1937,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>奧地利國家銀行</t>
+    <t>奥地利国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>比利時國家銀行</t>
+    <t>比利时国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
@@ -2015,9 +1991,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9A</t>
   </si>
   <si>
@@ -2033,7 +2006,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>亞美尼亞中央銀行</t>
+    <t>亚美尼亚中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A</t>
@@ -2051,19 +2024,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>斯洛伐克國家銀行</t>
+    <t>斯洛伐克国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>保加利亞國家銀行</t>
+    <t>保加利亚国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>波蘭國家銀行</t>
+    <t>波兰国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E5%9B%BD%E5%AE%B6%E9%93%B6%E8%A1%8C</t>
@@ -2075,13 +2048,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>捷克國家銀行</t>
+    <t>捷克国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>羅馬尼亞國家銀行</t>
+    <t>罗马尼亚国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6%E5%9B%BD%E5%AE%B6%E9%93%B6%E8%A1%8C</t>
@@ -2093,7 +2066,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>阿塞拜疆中央銀行</t>
+    <t>阿塞拜疆中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E9%93%B6%E8%A1%8C</t>
@@ -2105,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>喬治亞國家銀行</t>
+    <t>乔治亚国家银行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Bank_of_the_Republic_of_Abkhazia</t>
@@ -2135,7 +2108,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>芬蘭銀行</t>
+    <t>芬兰银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
@@ -2159,13 +2132,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>瑞典中央銀行</t>
+    <t>瑞典中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>挪威銀行</t>
+    <t>挪威银行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Central_Bank_of_Iceland</t>
@@ -2183,13 +2156,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>西班牙銀行</t>
+    <t>西班牙银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>葡萄牙銀行</t>
+    <t>葡萄牙银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
@@ -2213,7 +2186,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>梵蒂岡銀行</t>
+    <t>梵蒂冈银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E9%93%B6%E8%A1%8C</t>
@@ -2231,13 +2204,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>斯洛維尼亞銀行</t>
+    <t>斯洛维尼亚银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>安道爾公國</t>
+    <t>安道尔公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A%E5%9B%BD%E5%AE%B6%E9%93%B6%E8%A1%8C</t>
@@ -2273,7 +2246,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>馬其頓共和國國家銀行</t>
+    <t>马其顿共和国国家银行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Central_Bank_of_Kosovo</t>
@@ -2291,7 +2264,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>塞爾維亞國家銀行</t>
+    <t>塞尔维亚国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -2327,7 +2300,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>密克羅尼西亞聯邦</t>
+    <t>密克罗尼西亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -2339,7 +2312,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%90%E7%93%A6%E9%AD%AF</t>
   </si>
   <si>
-    <t>吐瓦魯</t>
+    <t>吐瓦鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%99%E9%B2%81%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -2369,7 +2342,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reserve_Bank_of_Vanuatu</t>
@@ -2435,7 +2408,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>越南國家銀行</t>
+    <t>越南国家银行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Bank_of_Cambodia</t>
@@ -2453,9 +2426,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9B%BD%E5%AE%B6%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>马来西亚国家银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
@@ -2495,7 +2465,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>孟加拉銀行</t>
+    <t>孟加拉银行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Maldives_Monetary_Authority</t>
@@ -2645,7 +2615,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E9%81%A9%E8%B6%B3%E8%A6%81%E6%B1%82</t>
   </si>
   <si>
-    <t>資本適足要求</t>
+    <t>资本适足要求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E5%B0%94%E5%8D%8F%E8%AE%AE</t>
@@ -2657,7 +2627,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B7%B4%E5%A1%9E%E7%88%BE%E8%B3%87%E6%9C%AC%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>新巴塞爾資本協定</t>
+    <t>新巴塞尔资本协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E5%B0%94%E5%8D%8F%E8%AE%AEIII</t>
@@ -2693,13 +2663,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>世界銀行集團</t>
+    <t>世界银行集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%87%91%E8%9E%8D%E5%85%AC%E5%8F%B8</t>
@@ -2717,7 +2687,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%82%8A%E6%8A%95%E8%B3%87%E6%93%94%E4%BF%9D%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>多邊投資擔保機構</t>
+    <t>多边投资担保机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%93%B6%E8%A1%8C</t>
@@ -2795,13 +2765,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%AD%A6%E6%B4%BE%E4%B8%8E%E5%92%B8%E6%B0%B4%E5%AD%A6%E6%B4%BE</t>
@@ -2825,7 +2795,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -2837,9 +2807,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
   </si>
   <si>
-    <t>通货膨胀</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8F%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
   </si>
   <si>
@@ -2861,7 +2828,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IS-LM%E6%A8%A1%E5%9E%8B</t>
@@ -2927,7 +2894,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -2957,7 +2924,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瓊·羅賓遜</t>
+    <t>琼·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%90%A8%E9%87%91%E7%89%B9</t>
@@ -2975,7 +2942,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2987,7 +2954,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -5939,7 +5906,7 @@
         <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="G90" t="n">
         <v>10</v>
@@ -5965,10 +5932,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>21</v>
@@ -5994,10 +5961,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -6023,10 +5990,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -6052,10 +6019,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6081,10 +6048,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -6110,10 +6077,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -6139,10 +6106,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6168,10 +6135,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -6197,10 +6164,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -6226,10 +6193,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -6255,10 +6222,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -6284,10 +6251,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>8</v>
@@ -6313,10 +6280,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6342,10 +6309,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -6371,10 +6338,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6400,10 +6367,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -6429,10 +6396,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6458,10 +6425,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -6487,10 +6454,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -6516,10 +6483,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -6545,10 +6512,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="G111" t="n">
         <v>30</v>
@@ -6574,10 +6541,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6603,10 +6570,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -6632,10 +6599,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6661,10 +6628,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6690,10 +6657,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6719,10 +6686,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6748,10 +6715,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6777,10 +6744,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6835,10 +6802,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6864,10 +6831,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -6893,10 +6860,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6922,10 +6889,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -6951,10 +6918,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6980,10 +6947,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>188</v>
+      </c>
+      <c r="F126" t="s">
         <v>189</v>
-      </c>
-      <c r="F126" t="s">
-        <v>190</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7009,10 +6976,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7038,10 +7005,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7067,10 +7034,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7096,10 +7063,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -7125,10 +7092,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -7154,10 +7121,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7183,10 +7150,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7212,10 +7179,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -7241,10 +7208,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -7270,10 +7237,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7299,10 +7266,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7328,10 +7295,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -7357,10 +7324,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>4</v>
@@ -7386,10 +7353,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>7</v>
@@ -7415,10 +7382,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7444,10 +7411,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7473,10 +7440,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7502,10 +7469,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7531,10 +7498,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7560,10 +7527,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>5</v>
@@ -7589,10 +7556,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7618,10 +7585,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7647,10 +7614,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7676,10 +7643,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -7705,10 +7672,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7734,10 +7701,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -7763,10 +7730,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>206</v>
+      </c>
+      <c r="F153" t="s">
         <v>207</v>
-      </c>
-      <c r="F153" t="s">
-        <v>208</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7792,10 +7759,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>5</v>
@@ -7821,10 +7788,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7850,10 +7817,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -7879,10 +7846,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -7908,10 +7875,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7937,10 +7904,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7966,10 +7933,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7995,10 +7962,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -8024,10 +7991,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -8053,10 +8020,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>13</v>
@@ -8082,10 +8049,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8111,10 +8078,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -8140,10 +8107,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>5</v>
@@ -8169,10 +8136,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -8198,10 +8165,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -8227,10 +8194,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8256,10 +8223,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8285,10 +8252,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8314,10 +8281,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8343,10 +8310,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8372,10 +8339,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8401,10 +8368,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F175" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8430,10 +8397,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>7</v>
@@ -8459,10 +8426,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>4</v>
@@ -8488,10 +8455,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8517,10 +8484,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8546,10 +8513,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8575,10 +8542,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -8604,10 +8571,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8633,10 +8600,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8662,10 +8629,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8691,10 +8658,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8720,10 +8687,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>4</v>
@@ -8749,10 +8716,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8778,10 +8745,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8807,10 +8774,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8836,10 +8803,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8865,10 +8832,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8894,10 +8861,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8923,10 +8890,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8952,10 +8919,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8981,10 +8948,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9010,10 +8977,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9039,10 +9006,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9068,10 +9035,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>217</v>
       </c>
       <c r="G198" t="n">
         <v>12</v>
@@ -9097,10 +9064,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9126,10 +9093,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G200" t="n">
         <v>16</v>
@@ -9155,10 +9122,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9184,10 +9151,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9213,10 +9180,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9242,10 +9209,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9271,10 +9238,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9300,10 +9267,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9329,10 +9296,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9358,10 +9325,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9387,10 +9354,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9416,10 +9383,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9445,10 +9412,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9474,10 +9441,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9503,10 +9470,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9532,10 +9499,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9561,10 +9528,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9590,10 +9557,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9619,10 +9586,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9648,10 +9615,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9677,10 +9644,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9706,10 +9673,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9735,10 +9702,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9764,10 +9731,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9793,10 +9760,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9822,10 +9789,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9851,10 +9818,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9880,10 +9847,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9909,10 +9876,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9938,10 +9905,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9967,10 +9934,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9996,10 +9963,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10025,10 +9992,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10054,10 +10021,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10083,10 +10050,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G233" t="n">
         <v>27</v>
@@ -10112,10 +10079,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10141,10 +10108,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10170,10 +10137,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10199,10 +10166,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -10228,10 +10195,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10257,10 +10224,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10286,10 +10253,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10315,10 +10282,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10344,10 +10311,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10373,10 +10340,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10402,10 +10369,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10431,10 +10398,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10460,10 +10427,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10489,10 +10456,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10518,10 +10485,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10547,10 +10514,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10576,10 +10543,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10605,10 +10572,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10634,10 +10601,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10663,10 +10630,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10692,10 +10659,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10721,10 +10688,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10750,10 +10717,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10779,10 +10746,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10808,10 +10775,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -10837,10 +10804,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10866,10 +10833,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10895,10 +10862,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10924,10 +10891,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10953,10 +10920,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10982,10 +10949,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11011,10 +10978,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11040,10 +11007,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11069,10 +11036,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11098,10 +11065,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11127,10 +11094,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11156,10 +11123,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11185,10 +11152,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11214,10 +11181,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F272" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G272" t="n">
         <v>4</v>
@@ -11243,10 +11210,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11272,10 +11239,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F274" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G274" t="n">
         <v>129</v>
@@ -11301,10 +11268,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11330,10 +11297,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11359,10 +11326,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F277" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11388,10 +11355,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11417,10 +11384,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F279" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11446,10 +11413,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F280" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11475,10 +11442,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11504,10 +11471,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11533,10 +11500,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11562,10 +11529,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F284" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11591,10 +11558,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F285" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11620,10 +11587,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F286" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11649,10 +11616,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F287" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11678,10 +11645,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11707,10 +11674,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11736,10 +11703,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11765,10 +11732,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F291" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11794,10 +11761,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F292" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11823,10 +11790,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F293" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G293" t="n">
         <v>3</v>
@@ -11852,10 +11819,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F294" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11881,10 +11848,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F295" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11910,10 +11877,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F296" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11939,10 +11906,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F297" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11968,10 +11935,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F298" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
@@ -11997,10 +11964,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F299" t="s">
-        <v>584</v>
+        <v>317</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -12026,10 +11993,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F300" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12055,10 +12022,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F301" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12084,10 +12051,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F302" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12113,10 +12080,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F303" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12142,10 +12109,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F304" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12171,10 +12138,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F305" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12200,10 +12167,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F306" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12229,10 +12196,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F307" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12258,10 +12225,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F308" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12287,10 +12254,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F309" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12316,10 +12283,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F310" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12345,10 +12312,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F311" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12374,10 +12341,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F312" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12403,10 +12370,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F313" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12432,10 +12399,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F314" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12461,10 +12428,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F315" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12490,10 +12457,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F316" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12519,10 +12486,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F317" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12548,10 +12515,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F318" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12577,10 +12544,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F319" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12606,10 +12573,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F320" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12635,10 +12602,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F321" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12664,10 +12631,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F322" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12693,10 +12660,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F323" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12722,10 +12689,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>208</v>
+      </c>
+      <c r="F324" t="s">
         <v>209</v>
-      </c>
-      <c r="F324" t="s">
-        <v>210</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12751,10 +12718,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F325" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12780,10 +12747,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F326" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12809,10 +12776,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F327" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12838,10 +12805,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F328" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12867,10 +12834,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F329" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12896,10 +12863,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F330" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12925,10 +12892,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F331" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12954,10 +12921,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F332" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12983,10 +12950,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F333" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13012,10 +12979,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F334" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13041,10 +13008,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F335" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13070,10 +13037,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F336" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13099,10 +13066,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F337" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13128,10 +13095,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F338" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13157,10 +13124,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F339" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13186,10 +13153,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F340" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13215,10 +13182,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F341" t="s">
-        <v>666</v>
+        <v>309</v>
       </c>
       <c r="G341" t="n">
         <v>4</v>
@@ -13244,10 +13211,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F342" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13273,10 +13240,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F343" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13302,10 +13269,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F344" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13331,10 +13298,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F345" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -13360,10 +13327,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F346" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13389,10 +13356,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F347" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13418,10 +13385,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F348" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13447,10 +13414,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F349" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13476,10 +13443,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F350" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13505,10 +13472,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F351" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13534,10 +13501,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F352" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13563,10 +13530,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F353" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13592,10 +13559,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F354" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13621,10 +13588,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F355" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13650,10 +13617,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F356" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13679,10 +13646,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F357" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13708,10 +13675,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13737,10 +13704,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13766,10 +13733,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13795,10 +13762,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13824,10 +13791,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13853,10 +13820,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13882,10 +13849,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13911,10 +13878,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13940,10 +13907,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13969,10 +13936,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13998,10 +13965,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14027,10 +13994,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14056,10 +14023,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14085,10 +14052,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14114,10 +14081,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14143,10 +14110,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14172,10 +14139,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14201,10 +14168,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14230,10 +14197,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14259,10 +14226,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14288,10 +14255,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F378" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14317,10 +14284,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="F379" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14346,10 +14313,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="F380" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14375,10 +14342,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F381" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14404,10 +14371,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="F382" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14433,10 +14400,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F383" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14462,10 +14429,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F384" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14491,10 +14458,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F385" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14520,10 +14487,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F386" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14549,10 +14516,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14578,10 +14545,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="F388" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14607,10 +14574,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="F389" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="G389" t="n">
         <v>3</v>
@@ -14636,10 +14603,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F390" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14665,10 +14632,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="F391" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14694,10 +14661,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F392" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14723,10 +14690,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F393" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14752,10 +14719,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F394" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14781,10 +14748,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F395" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14810,10 +14777,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
+        <v>214</v>
+      </c>
+      <c r="F396" t="s">
         <v>215</v>
-      </c>
-      <c r="F396" t="s">
-        <v>216</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14839,10 +14806,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F397" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14868,10 +14835,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F398" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14897,10 +14864,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F399" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14926,10 +14893,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F400" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14955,10 +14922,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F401" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14984,10 +14951,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F402" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15013,10 +14980,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F403" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15042,10 +15009,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F404" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15071,10 +15038,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F405" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15100,10 +15067,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F406" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15129,10 +15096,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="F407" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15158,10 +15125,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F408" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15187,10 +15154,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F409" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15216,10 +15183,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F410" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15245,10 +15212,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F411" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15274,10 +15241,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F412" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15303,10 +15270,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F413" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15332,10 +15299,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F414" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15361,10 +15328,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="F415" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15390,10 +15357,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F416" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15419,10 +15386,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F417" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15448,10 +15415,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F418" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15477,10 +15444,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>264</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15506,10 +15473,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15535,10 +15502,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15564,10 +15531,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15593,10 +15560,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F423" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15622,10 +15589,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="F424" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15651,10 +15618,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="F425" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15680,10 +15647,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="F426" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15709,10 +15676,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
+        <v>206</v>
+      </c>
+      <c r="F427" t="s">
         <v>207</v>
-      </c>
-      <c r="F427" t="s">
-        <v>208</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15738,10 +15705,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F428" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15767,10 +15734,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="F429" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15796,10 +15763,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F430" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15825,10 +15792,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="F431" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15854,10 +15821,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="F432" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15883,10 +15850,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="F433" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15912,10 +15879,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F434" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15941,10 +15908,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F435" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15970,10 +15937,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="F436" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15999,10 +15966,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F437" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16028,10 +15995,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="F438" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16057,10 +16024,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F439" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16086,10 +16053,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="F440" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16115,10 +16082,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="F441" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16144,10 +16111,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="F442" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16173,10 +16140,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F443" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16202,10 +16169,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="F444" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16231,10 +16198,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F445" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16260,10 +16227,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F446" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16289,10 +16256,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="F447" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16318,10 +16285,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="F448" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16347,10 +16314,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F449" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16376,10 +16343,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="F450" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16405,10 +16372,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="F451" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16434,10 +16401,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="F452" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16492,10 +16459,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="F454" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16579,10 +16546,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="F457" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="G457" t="n">
         <v>3</v>
@@ -16608,10 +16575,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F458" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16637,10 +16604,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F459" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16666,10 +16633,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="F460" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16695,10 +16662,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F461" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16724,10 +16691,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="F462" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16753,10 +16720,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="F463" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16782,10 +16749,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F464" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16811,10 +16778,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="F465" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16840,10 +16807,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F466" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16869,10 +16836,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="F467" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16898,10 +16865,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F468" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16927,10 +16894,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="F469" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -16956,10 +16923,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="F470" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16985,10 +16952,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="F471" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17014,10 +16981,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F472" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17043,10 +17010,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="F473" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17072,10 +17039,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="F474" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17101,10 +17068,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="F475" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17130,10 +17097,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F476" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="G476" t="n">
         <v>3</v>
@@ -17159,10 +17126,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="F477" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="G477" t="n">
         <v>2</v>
@@ -17188,10 +17155,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="F478" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17217,10 +17184,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="F479" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17246,10 +17213,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F480" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17275,10 +17242,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="F481" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17304,10 +17271,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="F482" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17333,10 +17300,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="F483" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17362,10 +17329,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="F484" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17391,10 +17358,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="F485" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17420,10 +17387,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="F486" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17449,10 +17416,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="F487" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17478,10 +17445,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="F488" t="s">
-        <v>940</v>
+        <v>234</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17507,10 +17474,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="F489" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17536,10 +17503,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="F490" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17565,10 +17532,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="F491" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17594,10 +17561,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F492" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17623,10 +17590,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="F493" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17652,10 +17619,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="F494" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17681,10 +17648,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="F495" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17710,10 +17677,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="F496" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17739,10 +17706,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="F497" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17768,10 +17735,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="F498" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17797,10 +17764,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="F499" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17826,10 +17793,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F500" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17855,10 +17822,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="F501" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17884,10 +17851,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="F502" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17913,10 +17880,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="F503" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17942,10 +17909,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="F504" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -17971,10 +17938,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="F505" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18000,10 +17967,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="F506" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18029,10 +17996,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="F507" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18058,10 +18025,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="F508" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18087,10 +18054,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="F509" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18116,10 +18083,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="F510" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18145,10 +18112,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="F511" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="G511" t="n">
         <v>3</v>
@@ -18174,10 +18141,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="F512" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18203,10 +18170,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="F513" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
